--- a/기획/테이블/캐릭터/NPC 스크립트 테이블.xlsx
+++ b/기획/테이블/캐릭터/NPC 스크립트 테이블.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\캐릭터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E41FEEA-849B-4FC3-8C0E-80D81C469C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39116A45-FC98-4587-B6C6-BF1616DE53FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2625" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="2280" windowWidth="20220" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NPC 스크립트 테이블" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,26 @@
   </si>
   <si>
     <t>잘 가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화 예시야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변변찮지만, 잡담을 나누는 기능을 추가했어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 좋은 기능이지, 안그래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화는 여기까지! 다시 선택지로 돌아가자고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말풍선 테스트인데….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,6 +505,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
